--- a/SuppXLS/Scen_UC_SOLHEAT_LO.xlsx
+++ b/SuppXLS/Scen_UC_SOLHEAT_LO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B40963-6882-4E8B-8378-8E145986AD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9732F45F-1724-4DD7-9CF8-90B7A35F943C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58752476-08F6-480F-B14A-373304AB5756}"/>
   </bookViews>
@@ -628,7 +628,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
